--- a/SampleApp/模版/03读取excel内容/Sample03.xlsx
+++ b/SampleApp/模版/03读取excel内容/Sample03.xlsx
@@ -304,25 +304,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A3:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -713,208 +713,208 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="3" spans="1:5" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="2" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="5" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+    <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="5" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
-        <v>2</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="7"/>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
+      <c r="D12" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7"/>
-      <c r="D13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>13</v>
+      <c r="D13" s="9"/>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>5</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>6</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:D13"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
